--- a/Biblioteka_Planilha_Testes.xlsx
+++ b/Biblioteka_Planilha_Testes.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2139" uniqueCount="965">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2140" uniqueCount="966">
   <si>
     <t>Planilha de Teste : Planejamento, Execução e Reportagem de Bugs</t>
   </si>
@@ -3098,6 +3098,9 @@
   </si>
   <si>
     <t>CR1563</t>
+  </si>
+  <si>
+    <t>CR1564</t>
   </si>
 </sst>
 </file>
@@ -22705,7 +22708,9 @@
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="34"/>
+      <c r="A25" s="34" t="s">
+        <v>956</v>
+      </c>
       <c r="B25" s="34" t="str">
         <f>'Execução'!A79</f>
         <v>CT054.4</v>
@@ -22763,7 +22768,7 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="34" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B26" s="34" t="str">
         <f>'Execução'!A82</f>
@@ -22822,7 +22827,7 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="34" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B27" s="34" t="str">
         <f>'Execução'!A93</f>
@@ -22886,7 +22891,7 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="34" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B28" s="34" t="str">
         <f>'Execução'!A96</f>
@@ -22950,7 +22955,7 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="34" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B29" s="34" t="str">
         <f>'Execução'!A99</f>
@@ -23014,7 +23019,7 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="34" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B30" s="34" t="str">
         <f>'Execução'!A100</f>
@@ -23078,7 +23083,7 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="34" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B31" s="34" t="str">
         <f>'Execução'!A101</f>
@@ -23142,7 +23147,7 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="34" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B32" s="34" t="str">
         <f>'Execução'!A111</f>
@@ -23206,7 +23211,7 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="34" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B33" s="34" t="str">
         <f>'Execução'!A112</f>
@@ -23271,7 +23276,7 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="34" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B34" s="34" t="str">
         <f>'Execução'!A113</f>
@@ -23338,256 +23343,130 @@
       <c r="F35" s="34"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="B36" s="34" t="str">
-        <f>'Execução'!A116</f>
-        <v/>
-      </c>
+      <c r="B36" s="34"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="B37" s="34" t="str">
-        <f>'Execução'!A118</f>
-        <v/>
-      </c>
+      <c r="B37" s="34"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="B38" s="34" t="str">
-        <f>'Execução'!A119</f>
-        <v/>
-      </c>
+      <c r="B38" s="34"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="B39" s="34" t="str">
-        <f>'Execução'!A120</f>
-        <v/>
-      </c>
+      <c r="B39" s="34"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="B40" s="34" t="str">
-        <f>'Execução'!A121</f>
-        <v/>
-      </c>
+      <c r="B40" s="34"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="B41" s="34" t="str">
-        <f>'Execução'!A122</f>
-        <v/>
-      </c>
+      <c r="B41" s="34"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="B42" s="34" t="str">
-        <f>'Execução'!A123</f>
-        <v/>
-      </c>
+      <c r="B42" s="34"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="B43" s="34" t="str">
-        <f>'Execução'!A124</f>
-        <v/>
-      </c>
+      <c r="B43" s="34"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="B44" s="34" t="str">
-        <f>'Execução'!A125</f>
-        <v/>
-      </c>
+      <c r="B44" s="34"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="B45" s="34" t="str">
-        <f>'Execução'!A126</f>
-        <v/>
-      </c>
+      <c r="B45" s="34"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="B46" s="34" t="str">
-        <f>'Execução'!A127</f>
-        <v/>
-      </c>
+      <c r="B46" s="34"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="B47" s="34" t="str">
-        <f>'Execução'!A128</f>
-        <v/>
-      </c>
+      <c r="B47" s="34"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="B48" s="34" t="str">
-        <f>'Execução'!A129</f>
-        <v/>
-      </c>
+      <c r="B48" s="34"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="B49" s="34" t="str">
-        <f>'Execução'!A130</f>
-        <v/>
-      </c>
+      <c r="B49" s="34"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="B50" s="34" t="str">
-        <f>'Execução'!A131</f>
-        <v/>
-      </c>
+      <c r="B50" s="34"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="B51" s="34" t="str">
-        <f>'Execução'!A132</f>
-        <v/>
-      </c>
+      <c r="B51" s="34"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="B52" s="34" t="str">
-        <f>'Execução'!A133</f>
-        <v/>
-      </c>
+      <c r="B52" s="34"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="B53" s="34" t="str">
-        <f>'Execução'!A134</f>
-        <v/>
-      </c>
+      <c r="B53" s="34"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="B54" s="34" t="str">
-        <f>'Execução'!A135</f>
-        <v/>
-      </c>
+      <c r="B54" s="34"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="B55" s="34" t="str">
-        <f>'Execução'!A136</f>
-        <v/>
-      </c>
+      <c r="B55" s="34"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="B56" s="34" t="str">
-        <f>'Execução'!A137</f>
-        <v/>
-      </c>
+      <c r="B56" s="34"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="B57" s="34" t="str">
-        <f>'Execução'!A138</f>
-        <v/>
-      </c>
+      <c r="B57" s="34"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="B58" s="34" t="str">
-        <f>'Execução'!A139</f>
-        <v/>
-      </c>
+      <c r="B58" s="34"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="B59" s="34" t="str">
-        <f>'Execução'!A140</f>
-        <v/>
-      </c>
+      <c r="B59" s="34"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="B60" s="34" t="str">
-        <f>'Execução'!A141</f>
-        <v/>
-      </c>
+      <c r="B60" s="34"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="B61" s="34" t="str">
-        <f>'Execução'!A142</f>
-        <v/>
-      </c>
+      <c r="B61" s="34"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="B62" s="34" t="str">
-        <f>'Execução'!A143</f>
-        <v/>
-      </c>
+      <c r="B62" s="34"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="B63" s="34" t="str">
-        <f>'Execução'!A144</f>
-        <v/>
-      </c>
+      <c r="B63" s="34"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="B64" s="34" t="str">
-        <f>'Execução'!A145</f>
-        <v/>
-      </c>
+      <c r="B64" s="34"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="B65" s="34" t="str">
-        <f>'Execução'!A146</f>
-        <v/>
-      </c>
+      <c r="B65" s="34"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="B66" s="34" t="str">
-        <f>'Execução'!A147</f>
-        <v/>
-      </c>
+      <c r="B66" s="34"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="B67" s="34" t="str">
-        <f>'Execução'!A148</f>
-        <v/>
-      </c>
+      <c r="B67" s="34"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="B68" s="34" t="str">
-        <f>'Execução'!A149</f>
-        <v/>
-      </c>
+      <c r="B68" s="34"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="B69" s="34" t="str">
-        <f>'Execução'!A150</f>
-        <v/>
-      </c>
+      <c r="B69" s="34"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="B70" s="34" t="str">
-        <f>'Execução'!A151</f>
-        <v/>
-      </c>
+      <c r="B70" s="34"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="B71" s="34" t="str">
-        <f>'Execução'!A152</f>
-        <v/>
-      </c>
+      <c r="B71" s="34"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="B72" s="34" t="str">
-        <f>'Execução'!A153</f>
-        <v/>
-      </c>
+      <c r="B72" s="34"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="B73" s="34" t="str">
-        <f>'Execução'!A154</f>
-        <v/>
-      </c>
+      <c r="B73" s="34"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="B74" s="34" t="str">
-        <f>'Execução'!A155</f>
-        <v/>
-      </c>
+      <c r="B74" s="34"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="B75" s="34" t="str">
-        <f>'Execução'!A156</f>
-        <v/>
-      </c>
+      <c r="B75" s="34"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="B76" s="34" t="str">
-        <f>'Execução'!A157</f>
-        <v/>
-      </c>
+      <c r="B76" s="34"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="B77" s="34" t="str">
-        <f>'Execução'!A158</f>
-        <v/>
-      </c>
+      <c r="B77" s="34"/>
     </row>
     <row r="78" ht="15.75" customHeight="1"/>
     <row r="79" ht="15.75" customHeight="1"/>
